--- a/static/data/test.xlsx
+++ b/static/data/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shichang02\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZJ-joyous-quan\git\myTool\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -30,15 +30,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>category1</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>enabled</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bioactive Compound Library </t>
   </si>
   <si>
@@ -48,12 +39,6 @@
     <t>A collection of 4548 bioactive compounds for HTS and HCS, consists of inhibitors, agonists and natural products, over 350 targets distributed in fields of cancer, cardiovascular disease, metabolic disease, neurological disease, infection, inflammation, immunology, endocrinology and so on.</t>
   </si>
   <si>
-    <t>Screening Libraries</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">FDA-approved Compound Library </t>
   </si>
   <si>
@@ -63,193 +48,154 @@
     <t>A collection of 2070 marketed drugs for HTS and HCS, over 200 targets, covered fields in cancer, cardiovascular disease, metabolic disease, neurological disease, infection, etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kinase Inhibitor Library </t>
-  </si>
-  <si>
     <t>CSN-L1003</t>
   </si>
   <si>
-    <t>A collection of 637 compounds for HTS and HCS, targeting over 80 kinases, such as tyrosine kinase receptors, protein kinases, lipid kinases, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyrosine Kinase Library </t>
-  </si>
-  <si>
     <t>CSN-L1004</t>
   </si>
   <si>
-    <t>A collection of 377 compounds for HTS and HCS, used to research related diseases and drug screening, targeted over 30 tyrosine kinase targets, such as VEGFR, EGFR, FGFR, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural Product Library  </t>
-  </si>
-  <si>
     <t>CSN-L1005</t>
   </si>
   <si>
-    <t>A collection of 1284 natural products for HTS and HCS, isolated from plants or biological separation, contains Quinones, Flavonoids, Terpenoids, Glycosides, Steroids, Alkaloid, Phenols and Saccharides.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti-virus Compound Library </t>
-  </si>
-  <si>
     <t>CSN-L1006</t>
   </si>
   <si>
-    <t>A collection of 249 anti-virus compounds for HTS and HCS and a useful tool for the discovery of anti-virus drugs, targeting at HIV, HBV, HCV, HSV, RSV, CMV, CoV, Influenza Virus, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurodegenerative Diseases Compound Library </t>
-  </si>
-  <si>
     <t>CSN-L1007</t>
   </si>
   <si>
-    <t>A collection of 516 drugs for HTS and HCS, which are used to treat 18 kinds of different neurodegenerative diseases in clinical studies, such as Alzheimer, Parkinson, Dementia with Lewy bodies, Multiple system atrophy, Huntington's disease, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epigenetics Compound Library </t>
-  </si>
-  <si>
     <t>CSN-L1008</t>
   </si>
   <si>
-    <t>A collection of 311 compounds for HTS and HCS, targeting on proteins involved in Epigenetics pathways, most of which can regulate methylation or acetylation modification.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autophagy Compound Library </t>
-  </si>
-  <si>
     <t>CSN-L1009</t>
   </si>
   <si>
-    <t>A collection of 688 compounds for HTS and HCS, targeting on proteins related with autophagy, including mTOR, PI3K, ULK, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell Cycle Compound Library </t>
-  </si>
-  <si>
     <t>CSN-L1010</t>
   </si>
   <si>
-    <t>A collection of 296 compounds for HTS and HCS, targeting on proteins related in cell cycle pathway.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apoptosis Compound Library </t>
-  </si>
-  <si>
     <t>CSN-L1011</t>
   </si>
   <si>
-    <t>A collection of 579 compounds for HTS and HCS, targeting on proteins related in apoptosis pathways, such as PARP, Bcl-2, p53, MDM2, FAK, caspase, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti-cancer Compound Library </t>
-  </si>
-  <si>
     <t>CSN-L1012</t>
   </si>
   <si>
-    <t>A collection of 1847 compounds reported in cancer research articles, covering multiple cancers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Human Endogenous Metabolite Compound Library </t>
-  </si>
-  <si>
     <t>CSN-L1013</t>
   </si>
   <si>
-    <t>The Endogenous Metabolite Compound Library contains 295 human endogenous metabolites, including amino acids, organic acids, nucleic acids, fatty acids, amines, sugars, vitamins, cofactors, cancer metabolite.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPCR Protein Compound Library </t>
-  </si>
-  <si>
     <t>CSN-L1014</t>
   </si>
   <si>
-    <t>A unique collection of 668 compounds targeting G protein coupled receptors used in GPCR screening for various research and drug development projects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Histone Modification Compound Library </t>
-  </si>
-  <si>
     <t>CSN-L1015</t>
   </si>
   <si>
-    <t>A unique collection of 185 compounds targeting histone modification, such as Epigenetic Reader Domain, HDAC, Histone Acetyltransferase, etc, for high throughput screening (HTS) and high content screening (HCS).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small Molecule Immuno-Oncology Compound Library </t>
-  </si>
-  <si>
     <t>CSN-L1016</t>
   </si>
   <si>
-    <t>A unique collection of 126 bioactive tumor immunology compounds targeting on PD-1/PD-L1, IDO, CCR, CXCR, TLR, STAT3, etc, for high throughput screening (HTS) and high content screening (HCS).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Differentiation Inducing Compound Library </t>
-  </si>
-  <si>
     <t>CSN-L1017</t>
   </si>
   <si>
-    <t>A unique collection of 391 cell differentiation-inducing compounds for high throughput screening (HTS) and high content screening (HCS), cancer stem cells, neural stem cells, cardiomyocyte stem cells, osteogenic stem cells are included.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immunology/Inflammation Compound Library </t>
-  </si>
-  <si>
     <t>CSN-L1018</t>
   </si>
   <si>
-    <t>A unique collection of 361 compounds with biological activity used for Immunology/Inflammation research and related assays, targeting on COX, IL Receptor, Histamine Receptor, ROS, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ubiquitination?Compound?Library </t>
-  </si>
-  <si>
     <t>CSN-L1019</t>
   </si>
   <si>
-    <t>A unique collection of 138 compounds with biological activity used for Ubiquitination related research and for high throughput screening (HTS) and high content screening (HCS), targeting on Proteasome, DUB, E3 Ligase, E1 Activating, E2 conjugating, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti-alzheimer Disease Compound Library </t>
-  </si>
-  <si>
     <t>CSN-L1020</t>
   </si>
   <si>
-    <t>Anti-alzheimer's Disease Compound Library contains 395 alzheimer-related compounds for screening effective drugs for alzheimer treatment.</t>
-  </si>
-  <si>
-    <t>CNS-penetrant Compound Library</t>
-  </si>
-  <si>
     <t>CSN-L1021</t>
   </si>
   <si>
-    <t>CNS-penetrant Compound Library contains 319 CNS-Penetrant compounds with biological activity for neurologic research and associated assays. Targets include AChR, 5-HT Receptor, Dopamine Receptor, etc.</t>
-  </si>
-  <si>
-    <t>Anti-coronavirus Compound Library</t>
-  </si>
-  <si>
     <t>CSN-L1022</t>
   </si>
   <si>
-    <t>A collection of 45 anti-coronavirus compounds for HTS and HCS and a useful tool for the discovery of anti- CoVID-19 drugs, targeting at SARS-CoV, MERS-CoV, etc.</t>
-  </si>
-  <si>
-    <t>Clinical Compound Library</t>
-  </si>
-  <si>
     <t>CSN-L1023</t>
   </si>
   <si>
-    <t>A collection of 2260 clinical compounds for HTS and HCS.</t>
+    <t>A collection of 4548 bioactive compounds for HTS and HCS, consists of inhibitors, agonists and natural products, over 351 targets distributed in fields of cancer, cardiovascular disease, metabolic disease, neurological disease, infection, inflammation, imnology, endocrinology and so on.e7</t>
+  </si>
+  <si>
+    <t>A collection of 2070 marketed drugs for HTS and HCS, over 201 targets, covered fields in cancer, cardiovascular disease, metabolic disease, neurological disease, infection, etc.</t>
+  </si>
+  <si>
+    <t>A collection of 4548 bioactive compounds for HTS and HCS, consists of inhibitors, agonists and natural products, over 352 targets distributed in fields of cancer, cardiovascular disease, metabolic disease, neurological disease, infection, inflammation, imnology, endocrinology and so on.e7</t>
+  </si>
+  <si>
+    <t>A collection of 2070 marketed drugs for HTS and HCS, over 202 targets, covered fields in cancer, cardiovascular disease, metabolic disease, neurological disease, infection, etc.</t>
+  </si>
+  <si>
+    <t>A collection of 4548 bioactive compounds for HTS and HCS, consists of inhibitors, agonists and natural products, over 353 targets distributed in fields of cancer, cardiovascular disease, metabolic disease, neurological disease, infection, inflammation, imnology, endocrinology and so on.e7</t>
+  </si>
+  <si>
+    <t>A collection of 2070 marketed drugs for HTS and HCS, over 203 targets, covered fields in cancer, cardiovascular disease, metabolic disease, neurological disease, infection, etc.</t>
+  </si>
+  <si>
+    <t>A collection of 4548 bioactive compounds for HTS and HCS, consists of inhibitors, agonists and natural products, over 354 targets distributed in fields of cancer, cardiovascular disease, metabolic disease, neurological disease, infection, inflammation, imnology, endocrinology and so on.e7</t>
+  </si>
+  <si>
+    <t>A collection of 2070 marketed drugs for HTS and HCS, over 204 targets, covered fields in cancer, cardiovascular disease, metabolic disease, neurological disease, infection, etc.</t>
+  </si>
+  <si>
+    <t>A collection of 4548 bioactive compounds for HTS and HCS, consists of inhibitors, agonists and natural products, over 355 targets distributed in fields of cancer, cardiovascular disease, metabolic disease, neurological disease, infection, inflammation, imnology, endocrinology and so on.e7</t>
+  </si>
+  <si>
+    <t>A collection of 2070 marketed drugs for HTS and HCS, over 205 targets, covered fields in cancer, cardiovascular disease, metabolic disease, neurological disease, infection, etc.</t>
+  </si>
+  <si>
+    <t>A collection of 4548 bioactive compounds for HTS and HCS, consists of inhibitors, agonists and natural products, over 356 targets distributed in fields of cancer, cardiovascular disease, metabolic disease, neurological disease, infection, inflammation, imnology, endocrinology and so on.e7</t>
+  </si>
+  <si>
+    <t>A collection of 2070 marketed drugs for HTS and HCS, over 206 targets, covered fields in cancer, cardiovascular disease, metabolic disease, neurological disease, infection, etc.</t>
+  </si>
+  <si>
+    <t>A collection of 4548 bioactive compounds for HTS and HCS, consists of inhibitors, agonists and natural products, over 357 targets distributed in fields of cancer, cardiovascular disease, metabolic disease, neurological disease, infection, inflammation, imnology, endocrinology and so on.e7</t>
+  </si>
+  <si>
+    <t>A collection of 2070 marketed drugs for HTS and HCS, over 207 targets, covered fields in cancer, cardiovascular disease, metabolic disease, neurological disease, infection, etc.</t>
+  </si>
+  <si>
+    <t>A collection of 4548 bioactive compounds for HTS and HCS, consists of inhibitors, agonists and natural products, over 358 targets distributed in fields of cancer, cardiovascular disease, metabolic disease, neurological disease, infection, inflammation, imnology, endocrinology and so on.e7</t>
+  </si>
+  <si>
+    <t>A collection of 2070 marketed drugs for HTS and HCS, over 208 targets, covered fields in cancer, cardiovascular disease, metabolic disease, neurological disease, infection, etc.</t>
+  </si>
+  <si>
+    <t>A collection of 4548 bioactive compounds for HTS and HCS, consists of inhibitors, agonists and natural products, over 359 targets distributed in fields of cancer, cardiovascular disease, metabolic disease, neurological disease, infection, inflammation, imnology, endocrinology and so on.e7</t>
+  </si>
+  <si>
+    <t>A collection of 2070 marketed drugs for HTS and HCS, over 209 targets, covered fields in cancer, cardiovascular disease, metabolic disease, neurological disease, infection, etc.</t>
+  </si>
+  <si>
+    <t>A collection of 4548 bioactive compounds for HTS and HCS, consists of inhibitors, agonists and natural products, over 360 targets distributed in fields of cancer, cardiovascular disease, metabolic disease, neurological disease, infection, inflammation, imnology, endocrinology and so on.e7</t>
+  </si>
+  <si>
+    <t>A collection of 2070 marketed drugs for HTS and HCS, over 210 targets, covered fields in cancer, cardiovascular disease, metabolic disease, neurological disease, infection, etc.</t>
+  </si>
+  <si>
+    <t>A collection of 4548 bioactive compounds for HTS and HCS, consists of inhibitors, agonists and natural products, over 361 targets distributed in fields of cancer, cardiovascular disease, metabolic disease, neurological disease, infection, inflammation, imnology, endocrinology and so on.e7</t>
+  </si>
+  <si>
+    <t>CSN-L1024</t>
+  </si>
+  <si>
+    <t>A collection of 2070 marketed drugs for HTS and HCS, over 211 targets, covered fields in cancer, cardiovascular disease, metabolic disease, neurological disease, infection, etc.</t>
+  </si>
+  <si>
+    <t>CSN-L1025</t>
+  </si>
+  <si>
+    <t>CSN-L1026</t>
+  </si>
+  <si>
+    <t>CSN-L1027</t>
+  </si>
+  <si>
+    <t>CSN-L1028</t>
+  </si>
+  <si>
+    <t>CSN-L1029</t>
+  </si>
+  <si>
+    <t>CSN-L1030</t>
   </si>
 </sst>
 </file>
@@ -636,13 +582,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="35.125" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -654,475 +606,429 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
